--- a/output_validation/05_pin_overview.xlsx
+++ b/output_validation/05_pin_overview.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,223 +512,223 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8459995</v>
+        <v>2833958</v>
       </c>
       <c r="D2" t="n">
-        <v>39</v>
+        <v>62.9</v>
       </c>
       <c r="E2" t="n">
-        <v>3298971</v>
+        <v>1783065</v>
       </c>
       <c r="F2" t="n">
-        <v>49.1</v>
+        <v>31.6</v>
       </c>
       <c r="G2" t="n">
-        <v>4150061</v>
+        <v>896590</v>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>4.6</v>
       </c>
       <c r="I2" t="n">
-        <v>759849</v>
+        <v>129949</v>
       </c>
       <c r="J2" t="n">
-        <v>3</v>
+        <v>0.9</v>
       </c>
       <c r="K2" t="n">
-        <v>251115</v>
+        <v>24355</v>
       </c>
       <c r="L2" t="n">
-        <v>61</v>
+        <v>37.1</v>
       </c>
       <c r="M2" t="n">
-        <v>5161024</v>
+        <v>1050893</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Host Community (5-17 y.o.)</t>
+          <t>ocap (5-17 y.o.)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Host Community</t>
+          <t>ocap</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6886611</v>
+        <v>2471589</v>
       </c>
       <c r="D3" t="n">
-        <v>39.6</v>
+        <v>66.5</v>
       </c>
       <c r="E3" t="n">
-        <v>2726842</v>
+        <v>1644768</v>
       </c>
       <c r="F3" t="n">
-        <v>49.2</v>
+        <v>28.5</v>
       </c>
       <c r="G3" t="n">
-        <v>3386270</v>
+        <v>703296</v>
       </c>
       <c r="H3" t="n">
-        <v>8.300000000000001</v>
+        <v>4.3</v>
       </c>
       <c r="I3" t="n">
-        <v>573282</v>
+        <v>107447</v>
       </c>
       <c r="J3" t="n">
-        <v>2.9</v>
+        <v>0.7</v>
       </c>
       <c r="K3" t="n">
-        <v>200217</v>
+        <v>16079</v>
       </c>
       <c r="L3" t="n">
-        <v>60.4</v>
+        <v>33.5</v>
       </c>
       <c r="M3" t="n">
-        <v>4159769</v>
+        <v>826821</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>New IDPs (5-17 y.o.)</t>
+          <t>idp (5-17 y.o.)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>New IDPs</t>
+          <t>idp</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>228282</v>
+        <v>226810</v>
       </c>
       <c r="D4" t="n">
-        <v>20.1</v>
+        <v>36.8</v>
       </c>
       <c r="E4" t="n">
-        <v>45971</v>
+        <v>83383</v>
       </c>
       <c r="F4" t="n">
-        <v>59.1</v>
+        <v>54.8</v>
       </c>
       <c r="G4" t="n">
-        <v>134925</v>
+        <v>124350</v>
       </c>
       <c r="H4" t="n">
-        <v>11</v>
+        <v>5.4</v>
       </c>
       <c r="I4" t="n">
-        <v>25133</v>
+        <v>12235</v>
       </c>
       <c r="J4" t="n">
-        <v>9.699999999999999</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
-        <v>22252</v>
+        <v>6842</v>
       </c>
       <c r="L4" t="n">
-        <v>79.90000000000001</v>
+        <v>63.2</v>
       </c>
       <c r="M4" t="n">
-        <v>182310</v>
+        <v>143427</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Protracted IDPs (5-17 y.o.)</t>
+          <t>ret (5-17 y.o.)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Protracted IDPs</t>
+          <t>ret</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1345102</v>
+        <v>113405</v>
       </c>
       <c r="D5" t="n">
-        <v>39.1</v>
+        <v>42.2</v>
       </c>
       <c r="E5" t="n">
-        <v>526157</v>
+        <v>47820</v>
       </c>
       <c r="F5" t="n">
-        <v>46.8</v>
+        <v>48.9</v>
       </c>
       <c r="G5" t="n">
-        <v>628865</v>
+        <v>55452</v>
       </c>
       <c r="H5" t="n">
-        <v>12</v>
+        <v>7.7</v>
       </c>
       <c r="I5" t="n">
-        <v>161433</v>
+        <v>8760</v>
       </c>
       <c r="J5" t="n">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="K5" t="n">
-        <v>28646</v>
+        <v>1373</v>
       </c>
       <c r="L5" t="n">
-        <v>60.9</v>
+        <v>57.8</v>
       </c>
       <c r="M5" t="n">
-        <v>818945</v>
+        <v>65585</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Girls</t>
+          <t>ndsp (5-17 y.o.)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>All population groups</t>
+          <t>ndsp</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3848688</v>
+        <v>22154</v>
       </c>
       <c r="D6" t="n">
-        <v>38.5</v>
+        <v>32</v>
       </c>
       <c r="E6" t="n">
-        <v>1483153</v>
+        <v>7094</v>
       </c>
       <c r="F6" t="n">
-        <v>48.9</v>
+        <v>60.9</v>
       </c>
       <c r="G6" t="n">
-        <v>1883668</v>
+        <v>13492</v>
       </c>
       <c r="H6" t="n">
-        <v>9.5</v>
+        <v>6.8</v>
       </c>
       <c r="I6" t="n">
-        <v>364219</v>
+        <v>1507</v>
       </c>
       <c r="J6" t="n">
-        <v>3.1</v>
+        <v>0.3</v>
       </c>
       <c r="K6" t="n">
-        <v>117648</v>
+        <v>62</v>
       </c>
       <c r="L6" t="n">
-        <v>61.5</v>
+        <v>68</v>
       </c>
       <c r="M6" t="n">
-        <v>2365535</v>
+        <v>15060</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Boys</t>
+          <t>Girls</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -737,43 +737,43 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4611307</v>
+        <v>1251549</v>
       </c>
       <c r="D7" t="n">
-        <v>39.4</v>
+        <v>63.9</v>
       </c>
       <c r="E7" t="n">
-        <v>1815818</v>
+        <v>799319</v>
       </c>
       <c r="F7" t="n">
-        <v>49.1</v>
+        <v>30.8</v>
       </c>
       <c r="G7" t="n">
-        <v>2266393</v>
+        <v>385054</v>
       </c>
       <c r="H7" t="n">
-        <v>8.6</v>
+        <v>4.6</v>
       </c>
       <c r="I7" t="n">
-        <v>395630</v>
+        <v>57046</v>
       </c>
       <c r="J7" t="n">
-        <v>2.9</v>
+        <v>0.8</v>
       </c>
       <c r="K7" t="n">
-        <v>133467</v>
+        <v>10130</v>
       </c>
       <c r="L7" t="n">
-        <v>60.6</v>
+        <v>36.1</v>
       </c>
       <c r="M7" t="n">
-        <v>2795489</v>
+        <v>452230</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Female (MSNA)</t>
+          <t>Boys</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -782,43 +782,43 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3622892</v>
+        <v>1582409</v>
       </c>
       <c r="D8" t="n">
-        <v>38.9</v>
+        <v>62.2</v>
       </c>
       <c r="E8" t="n">
-        <v>1407994</v>
+        <v>983746</v>
       </c>
       <c r="F8" t="n">
-        <v>52.2</v>
+        <v>32.3</v>
       </c>
       <c r="G8" t="n">
-        <v>1890021</v>
+        <v>511536</v>
       </c>
       <c r="H8" t="n">
-        <v>6.3</v>
+        <v>4.6</v>
       </c>
       <c r="I8" t="n">
-        <v>226999</v>
+        <v>72902</v>
       </c>
       <c r="J8" t="n">
-        <v>2.7</v>
+        <v>0.9</v>
       </c>
       <c r="K8" t="n">
-        <v>97878</v>
+        <v>14225</v>
       </c>
       <c r="L8" t="n">
-        <v>61.1</v>
+        <v>37.8</v>
       </c>
       <c r="M8" t="n">
-        <v>2214899</v>
+        <v>598663</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Male (MSNA)</t>
+          <t>Female (MSNA)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -827,43 +827,43 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4611307</v>
+        <v>1251549</v>
       </c>
       <c r="D9" t="n">
-        <v>39.8</v>
+        <v>63.6</v>
       </c>
       <c r="E9" t="n">
-        <v>1834347</v>
+        <v>796577</v>
       </c>
       <c r="F9" t="n">
-        <v>48.8</v>
+        <v>30.7</v>
       </c>
       <c r="G9" t="n">
-        <v>2249894</v>
+        <v>384154</v>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>4.8</v>
       </c>
       <c r="I9" t="n">
-        <v>368458</v>
+        <v>60589</v>
       </c>
       <c r="J9" t="n">
-        <v>3.4</v>
+        <v>0.8</v>
       </c>
       <c r="K9" t="n">
-        <v>158608</v>
+        <v>10228</v>
       </c>
       <c r="L9" t="n">
-        <v>60.2</v>
+        <v>36.4</v>
       </c>
       <c r="M9" t="n">
-        <v>2776960</v>
+        <v>454972</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ECE (5 y.o.)</t>
+          <t>Male (MSNA)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -872,43 +872,43 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1505582</v>
+        <v>1582409</v>
       </c>
       <c r="D10" t="n">
-        <v>43.4</v>
+        <v>62.2</v>
       </c>
       <c r="E10" t="n">
-        <v>654050</v>
+        <v>983644</v>
       </c>
       <c r="F10" t="n">
-        <v>46.7</v>
+        <v>32.7</v>
       </c>
       <c r="G10" t="n">
-        <v>702714</v>
+        <v>517122</v>
       </c>
       <c r="H10" t="n">
-        <v>7.6</v>
+        <v>4.3</v>
       </c>
       <c r="I10" t="n">
-        <v>114662</v>
+        <v>67525</v>
       </c>
       <c r="J10" t="n">
-        <v>2.3</v>
+        <v>0.9</v>
       </c>
       <c r="K10" t="n">
-        <v>34156</v>
+        <v>14118</v>
       </c>
       <c r="L10" t="n">
-        <v>56.6</v>
+        <v>37.8</v>
       </c>
       <c r="M10" t="n">
-        <v>851532</v>
+        <v>598765</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Primary school</t>
+          <t>ECE (5 y.o.)</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -917,43 +917,43 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2603075</v>
+        <v>290232</v>
       </c>
       <c r="D11" t="n">
-        <v>39</v>
+        <v>62.8</v>
       </c>
       <c r="E11" t="n">
-        <v>1015068</v>
+        <v>182182</v>
       </c>
       <c r="F11" t="n">
-        <v>49.1</v>
+        <v>31.8</v>
       </c>
       <c r="G11" t="n">
-        <v>1276942</v>
+        <v>92401</v>
       </c>
       <c r="H11" t="n">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="I11" t="n">
-        <v>233800</v>
+        <v>13158</v>
       </c>
       <c r="J11" t="n">
-        <v>3</v>
+        <v>0.9</v>
       </c>
       <c r="K11" t="n">
-        <v>77266</v>
+        <v>2491</v>
       </c>
       <c r="L11" t="n">
-        <v>61</v>
+        <v>37.2</v>
       </c>
       <c r="M11" t="n">
-        <v>1588007</v>
+        <v>108050</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Upper primary school</t>
+          <t>Primary school</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -962,43 +962,43 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3253844</v>
+        <v>1089984</v>
       </c>
       <c r="D12" t="n">
-        <v>39</v>
+        <v>62.9</v>
       </c>
       <c r="E12" t="n">
-        <v>1268835</v>
+        <v>685794</v>
       </c>
       <c r="F12" t="n">
-        <v>49.1</v>
+        <v>31.6</v>
       </c>
       <c r="G12" t="n">
-        <v>1596177</v>
+        <v>344842</v>
       </c>
       <c r="H12" t="n">
-        <v>9</v>
+        <v>4.6</v>
       </c>
       <c r="I12" t="n">
-        <v>292250</v>
+        <v>49980</v>
       </c>
       <c r="J12" t="n">
-        <v>3</v>
+        <v>0.9</v>
       </c>
       <c r="K12" t="n">
-        <v>96583</v>
+        <v>9367</v>
       </c>
       <c r="L12" t="n">
-        <v>61</v>
+        <v>37.1</v>
       </c>
       <c r="M12" t="n">
-        <v>1985009</v>
+        <v>404190</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Secondary school</t>
+          <t>Upper primary school</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1007,82 +1007,127 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1952307</v>
+        <v>871987</v>
       </c>
       <c r="D13" t="n">
-        <v>39</v>
+        <v>62.9</v>
       </c>
       <c r="E13" t="n">
-        <v>761301</v>
+        <v>548635</v>
       </c>
       <c r="F13" t="n">
-        <v>49.1</v>
+        <v>31.6</v>
       </c>
       <c r="G13" t="n">
-        <v>957706</v>
+        <v>275874</v>
       </c>
       <c r="H13" t="n">
-        <v>9</v>
+        <v>4.6</v>
       </c>
       <c r="I13" t="n">
-        <v>175350</v>
+        <v>39984</v>
       </c>
       <c r="J13" t="n">
-        <v>3</v>
+        <v>0.9</v>
       </c>
       <c r="K13" t="n">
-        <v>57950</v>
+        <v>7494</v>
       </c>
       <c r="L13" t="n">
-        <v>61</v>
+        <v>37.1</v>
       </c>
       <c r="M13" t="n">
-        <v>1191006</v>
+        <v>323352</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>Secondary school</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>All population groups</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>653990</v>
+      </c>
+      <c r="D14" t="n">
+        <v>62.9</v>
+      </c>
+      <c r="E14" t="n">
+        <v>411477</v>
+      </c>
+      <c r="F14" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="G14" t="n">
+        <v>206905</v>
+      </c>
+      <c r="H14" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="I14" t="n">
+        <v>29988</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="K14" t="n">
+        <v>5620</v>
+      </c>
+      <c r="L14" t="n">
+        <v>37.1</v>
+      </c>
+      <c r="M14" t="n">
+        <v>242514</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
           <t>Children with disability</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>All population groups</t>
         </is>
       </c>
-      <c r="C14" t="n">
-        <v>845999</v>
-      </c>
-      <c r="D14" t="n">
-        <v>39</v>
-      </c>
-      <c r="E14" t="n">
-        <v>329897</v>
-      </c>
-      <c r="F14" t="n">
-        <v>49.1</v>
-      </c>
-      <c r="G14" t="n">
-        <v>415006</v>
-      </c>
-      <c r="H14" t="n">
-        <v>9</v>
-      </c>
-      <c r="I14" t="n">
-        <v>75985</v>
-      </c>
-      <c r="J14" t="n">
-        <v>3</v>
-      </c>
-      <c r="K14" t="n">
-        <v>25111</v>
-      </c>
-      <c r="L14" t="n">
-        <v>61</v>
-      </c>
-      <c r="M14" t="n">
-        <v>516102</v>
+      <c r="C15" t="n">
+        <v>283396</v>
+      </c>
+      <c r="D15" t="n">
+        <v>62.9</v>
+      </c>
+      <c r="E15" t="n">
+        <v>178306</v>
+      </c>
+      <c r="F15" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="G15" t="n">
+        <v>89659</v>
+      </c>
+      <c r="H15" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="I15" t="n">
+        <v>12995</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2435</v>
+      </c>
+      <c r="L15" t="n">
+        <v>37.1</v>
+      </c>
+      <c r="M15" t="n">
+        <v>105089</v>
       </c>
     </row>
   </sheetData>

--- a/output_validation/05_pin_overview.xlsx
+++ b/output_validation/05_pin_overview.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -725,411 +725,6 @@
         <v>15060</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Girls</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>All population groups</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1251549</v>
-      </c>
-      <c r="D7" t="n">
-        <v>63.9</v>
-      </c>
-      <c r="E7" t="n">
-        <v>799319</v>
-      </c>
-      <c r="F7" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="G7" t="n">
-        <v>385054</v>
-      </c>
-      <c r="H7" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="I7" t="n">
-        <v>57046</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="K7" t="n">
-        <v>10130</v>
-      </c>
-      <c r="L7" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="M7" t="n">
-        <v>452230</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Boys</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>All population groups</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>1582409</v>
-      </c>
-      <c r="D8" t="n">
-        <v>62.2</v>
-      </c>
-      <c r="E8" t="n">
-        <v>983746</v>
-      </c>
-      <c r="F8" t="n">
-        <v>32.3</v>
-      </c>
-      <c r="G8" t="n">
-        <v>511536</v>
-      </c>
-      <c r="H8" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="I8" t="n">
-        <v>72902</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="K8" t="n">
-        <v>14225</v>
-      </c>
-      <c r="L8" t="n">
-        <v>37.8</v>
-      </c>
-      <c r="M8" t="n">
-        <v>598663</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Female (MSNA)</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>All population groups</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>1251549</v>
-      </c>
-      <c r="D9" t="n">
-        <v>63.6</v>
-      </c>
-      <c r="E9" t="n">
-        <v>796577</v>
-      </c>
-      <c r="F9" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="G9" t="n">
-        <v>384154</v>
-      </c>
-      <c r="H9" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="I9" t="n">
-        <v>60589</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="K9" t="n">
-        <v>10228</v>
-      </c>
-      <c r="L9" t="n">
-        <v>36.4</v>
-      </c>
-      <c r="M9" t="n">
-        <v>454972</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Male (MSNA)</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>All population groups</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>1582409</v>
-      </c>
-      <c r="D10" t="n">
-        <v>62.2</v>
-      </c>
-      <c r="E10" t="n">
-        <v>983644</v>
-      </c>
-      <c r="F10" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="G10" t="n">
-        <v>517122</v>
-      </c>
-      <c r="H10" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="I10" t="n">
-        <v>67525</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="K10" t="n">
-        <v>14118</v>
-      </c>
-      <c r="L10" t="n">
-        <v>37.8</v>
-      </c>
-      <c r="M10" t="n">
-        <v>598765</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>ECE (5 y.o.)</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>All population groups</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>290232</v>
-      </c>
-      <c r="D11" t="n">
-        <v>62.8</v>
-      </c>
-      <c r="E11" t="n">
-        <v>182182</v>
-      </c>
-      <c r="F11" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="G11" t="n">
-        <v>92401</v>
-      </c>
-      <c r="H11" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="I11" t="n">
-        <v>13158</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="K11" t="n">
-        <v>2491</v>
-      </c>
-      <c r="L11" t="n">
-        <v>37.2</v>
-      </c>
-      <c r="M11" t="n">
-        <v>108050</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Primary school</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>All population groups</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>1089984</v>
-      </c>
-      <c r="D12" t="n">
-        <v>62.9</v>
-      </c>
-      <c r="E12" t="n">
-        <v>685794</v>
-      </c>
-      <c r="F12" t="n">
-        <v>31.6</v>
-      </c>
-      <c r="G12" t="n">
-        <v>344842</v>
-      </c>
-      <c r="H12" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="I12" t="n">
-        <v>49980</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="K12" t="n">
-        <v>9367</v>
-      </c>
-      <c r="L12" t="n">
-        <v>37.1</v>
-      </c>
-      <c r="M12" t="n">
-        <v>404190</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Upper primary school</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>All population groups</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>871987</v>
-      </c>
-      <c r="D13" t="n">
-        <v>62.9</v>
-      </c>
-      <c r="E13" t="n">
-        <v>548635</v>
-      </c>
-      <c r="F13" t="n">
-        <v>31.6</v>
-      </c>
-      <c r="G13" t="n">
-        <v>275874</v>
-      </c>
-      <c r="H13" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="I13" t="n">
-        <v>39984</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="K13" t="n">
-        <v>7494</v>
-      </c>
-      <c r="L13" t="n">
-        <v>37.1</v>
-      </c>
-      <c r="M13" t="n">
-        <v>323352</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Secondary school</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>All population groups</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>653990</v>
-      </c>
-      <c r="D14" t="n">
-        <v>62.9</v>
-      </c>
-      <c r="E14" t="n">
-        <v>411477</v>
-      </c>
-      <c r="F14" t="n">
-        <v>31.6</v>
-      </c>
-      <c r="G14" t="n">
-        <v>206905</v>
-      </c>
-      <c r="H14" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="I14" t="n">
-        <v>29988</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="K14" t="n">
-        <v>5620</v>
-      </c>
-      <c r="L14" t="n">
-        <v>37.1</v>
-      </c>
-      <c r="M14" t="n">
-        <v>242514</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Children with disability</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>All population groups</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>283396</v>
-      </c>
-      <c r="D15" t="n">
-        <v>62.9</v>
-      </c>
-      <c r="E15" t="n">
-        <v>178306</v>
-      </c>
-      <c r="F15" t="n">
-        <v>31.6</v>
-      </c>
-      <c r="G15" t="n">
-        <v>89659</v>
-      </c>
-      <c r="H15" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="I15" t="n">
-        <v>12995</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="K15" t="n">
-        <v>2435</v>
-      </c>
-      <c r="L15" t="n">
-        <v>37.1</v>
-      </c>
-      <c r="M15" t="n">
-        <v>105089</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/output_validation/05_pin_overview.xlsx
+++ b/output_validation/05_pin_overview.xlsx
@@ -451,52 +451,52 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>% 1-2</t>
+          <t>% severity levels 1-2</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t># 1-2</t>
+          <t># severity levels 1-2</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>% 3</t>
+          <t>% severity level 3</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t># 3</t>
+          <t># severity level 3</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>% 4</t>
+          <t>% severity level 4</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t># 4</t>
+          <t># severity level 4</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>% 5</t>
+          <t>% severity level 5</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t># 5</t>
+          <t># severity level 5</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>% Tot PiN (3+)</t>
+          <t>% Tot PiN (severity levels 3-5)</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t># Tot PiN (3+)</t>
+          <t># Tot PiN (severity levels 3-5)</t>
         </is>
       </c>
     </row>

--- a/output_validation/05_pin_overview.xlsx
+++ b/output_validation/05_pin_overview.xlsx
@@ -515,34 +515,34 @@
         <v>2833958</v>
       </c>
       <c r="D2" t="n">
-        <v>62.9</v>
+        <v>65.2</v>
       </c>
       <c r="E2" t="n">
-        <v>1783065</v>
+        <v>1848682</v>
       </c>
       <c r="F2" t="n">
-        <v>31.6</v>
+        <v>31.4</v>
       </c>
       <c r="G2" t="n">
-        <v>896590</v>
+        <v>889297</v>
       </c>
       <c r="H2" t="n">
-        <v>4.6</v>
+        <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>129949</v>
+        <v>84060</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="K2" t="n">
-        <v>24355</v>
+        <v>11919</v>
       </c>
       <c r="L2" t="n">
-        <v>37.1</v>
+        <v>34.8</v>
       </c>
       <c r="M2" t="n">
-        <v>1050893</v>
+        <v>985277</v>
       </c>
     </row>
     <row r="3">
@@ -560,34 +560,34 @@
         <v>2471589</v>
       </c>
       <c r="D3" t="n">
-        <v>66.5</v>
+        <v>69.5</v>
       </c>
       <c r="E3" t="n">
-        <v>1644768</v>
+        <v>1717531</v>
       </c>
       <c r="F3" t="n">
-        <v>28.5</v>
+        <v>28</v>
       </c>
       <c r="G3" t="n">
-        <v>703296</v>
+        <v>692445</v>
       </c>
       <c r="H3" t="n">
-        <v>4.3</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>107447</v>
+        <v>50253</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="K3" t="n">
-        <v>16079</v>
+        <v>11360</v>
       </c>
       <c r="L3" t="n">
-        <v>33.5</v>
+        <v>30.5</v>
       </c>
       <c r="M3" t="n">
-        <v>826821</v>
+        <v>754057</v>
       </c>
     </row>
     <row r="4">
@@ -605,34 +605,34 @@
         <v>226810</v>
       </c>
       <c r="D4" t="n">
-        <v>36.8</v>
+        <v>33</v>
       </c>
       <c r="E4" t="n">
-        <v>83383</v>
+        <v>74758</v>
       </c>
       <c r="F4" t="n">
-        <v>54.8</v>
+        <v>57.5</v>
       </c>
       <c r="G4" t="n">
-        <v>124350</v>
+        <v>130460</v>
       </c>
       <c r="H4" t="n">
-        <v>5.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>12235</v>
+        <v>21134</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="K4" t="n">
-        <v>6842</v>
+        <v>458</v>
       </c>
       <c r="L4" t="n">
-        <v>63.2</v>
+        <v>67</v>
       </c>
       <c r="M4" t="n">
-        <v>143427</v>
+        <v>152052</v>
       </c>
     </row>
     <row r="5">
@@ -650,34 +650,34 @@
         <v>113405</v>
       </c>
       <c r="D5" t="n">
-        <v>42.2</v>
+        <v>42.8</v>
       </c>
       <c r="E5" t="n">
-        <v>47820</v>
+        <v>48483</v>
       </c>
       <c r="F5" t="n">
-        <v>48.9</v>
+        <v>48.2</v>
       </c>
       <c r="G5" t="n">
-        <v>55452</v>
+        <v>54644</v>
       </c>
       <c r="H5" t="n">
-        <v>7.7</v>
+        <v>9</v>
       </c>
       <c r="I5" t="n">
-        <v>8760</v>
+        <v>10176</v>
       </c>
       <c r="J5" t="n">
-        <v>1.2</v>
+        <v>0.1</v>
       </c>
       <c r="K5" t="n">
-        <v>1373</v>
+        <v>102</v>
       </c>
       <c r="L5" t="n">
-        <v>57.8</v>
+        <v>57.2</v>
       </c>
       <c r="M5" t="n">
-        <v>65585</v>
+        <v>64922</v>
       </c>
     </row>
     <row r="6">
@@ -695,34 +695,34 @@
         <v>22154</v>
       </c>
       <c r="D6" t="n">
-        <v>32</v>
+        <v>35.7</v>
       </c>
       <c r="E6" t="n">
-        <v>7094</v>
+        <v>7909</v>
       </c>
       <c r="F6" t="n">
-        <v>60.9</v>
+        <v>53</v>
       </c>
       <c r="G6" t="n">
-        <v>13492</v>
+        <v>11747</v>
       </c>
       <c r="H6" t="n">
-        <v>6.8</v>
+        <v>11.3</v>
       </c>
       <c r="I6" t="n">
-        <v>1507</v>
+        <v>2498</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>68</v>
+        <v>64.3</v>
       </c>
       <c r="M6" t="n">
-        <v>15060</v>
+        <v>14245</v>
       </c>
     </row>
   </sheetData>

--- a/output_validation/05_pin_overview.xlsx
+++ b/output_validation/05_pin_overview.xlsx
@@ -512,37 +512,37 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2833958</v>
+        <v>3627552</v>
       </c>
       <c r="D2" t="n">
-        <v>65.2</v>
+        <v>33.1</v>
       </c>
       <c r="E2" t="n">
-        <v>1848682</v>
+        <v>1200661</v>
       </c>
       <c r="F2" t="n">
-        <v>31.4</v>
+        <v>63.1</v>
       </c>
       <c r="G2" t="n">
-        <v>889297</v>
+        <v>2287465</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I2" t="n">
-        <v>84060</v>
+        <v>113644</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="K2" t="n">
-        <v>11919</v>
+        <v>25783</v>
       </c>
       <c r="L2" t="n">
-        <v>34.8</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="M2" t="n">
-        <v>985277</v>
+        <v>2426892</v>
       </c>
     </row>
     <row r="3">
@@ -557,37 +557,37 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2471589</v>
+        <v>3017073</v>
       </c>
       <c r="D3" t="n">
-        <v>69.5</v>
+        <v>32.1</v>
       </c>
       <c r="E3" t="n">
-        <v>1717531</v>
+        <v>969707</v>
       </c>
       <c r="F3" t="n">
-        <v>28</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="G3" t="n">
-        <v>692445</v>
+        <v>1948204</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="I3" t="n">
-        <v>50253</v>
+        <v>75104</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="K3" t="n">
-        <v>11360</v>
+        <v>24058</v>
       </c>
       <c r="L3" t="n">
-        <v>30.5</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="M3" t="n">
-        <v>754057</v>
+        <v>2047366</v>
       </c>
     </row>
     <row r="4">
@@ -602,37 +602,37 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>226810</v>
+        <v>298263</v>
       </c>
       <c r="D4" t="n">
-        <v>33</v>
+        <v>40.5</v>
       </c>
       <c r="E4" t="n">
-        <v>74758</v>
+        <v>120695</v>
       </c>
       <c r="F4" t="n">
-        <v>57.5</v>
+        <v>51.9</v>
       </c>
       <c r="G4" t="n">
-        <v>130460</v>
+        <v>154753</v>
       </c>
       <c r="H4" t="n">
-        <v>9.300000000000001</v>
+        <v>7.4</v>
       </c>
       <c r="I4" t="n">
-        <v>21134</v>
+        <v>21993</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="K4" t="n">
-        <v>458</v>
+        <v>821</v>
       </c>
       <c r="L4" t="n">
-        <v>67</v>
+        <v>59.5</v>
       </c>
       <c r="M4" t="n">
-        <v>152052</v>
+        <v>177568</v>
       </c>
     </row>
     <row r="5">
@@ -647,37 +647,37 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>113405</v>
+        <v>175077</v>
       </c>
       <c r="D5" t="n">
-        <v>42.8</v>
+        <v>34.3</v>
       </c>
       <c r="E5" t="n">
-        <v>48483</v>
+        <v>60053</v>
       </c>
       <c r="F5" t="n">
-        <v>48.2</v>
+        <v>62.6</v>
       </c>
       <c r="G5" t="n">
-        <v>54644</v>
+        <v>109653</v>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>2.6</v>
       </c>
       <c r="I5" t="n">
-        <v>10176</v>
+        <v>4467</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="K5" t="n">
-        <v>102</v>
+        <v>904</v>
       </c>
       <c r="L5" t="n">
-        <v>57.2</v>
+        <v>65.7</v>
       </c>
       <c r="M5" t="n">
-        <v>64922</v>
+        <v>115024</v>
       </c>
     </row>
     <row r="6">
@@ -692,25 +692,25 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>22154</v>
+        <v>137139</v>
       </c>
       <c r="D6" t="n">
-        <v>35.7</v>
+        <v>36.6</v>
       </c>
       <c r="E6" t="n">
-        <v>7909</v>
+        <v>50206</v>
       </c>
       <c r="F6" t="n">
-        <v>53</v>
+        <v>54.6</v>
       </c>
       <c r="G6" t="n">
-        <v>11747</v>
+        <v>74854</v>
       </c>
       <c r="H6" t="n">
-        <v>11.3</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>2498</v>
+        <v>12079</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -719,10 +719,10 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>64.3</v>
+        <v>63.4</v>
       </c>
       <c r="M6" t="n">
-        <v>14245</v>
+        <v>86934</v>
       </c>
     </row>
   </sheetData>

--- a/output_validation/05_pin_overview.xlsx
+++ b/output_validation/05_pin_overview.xlsx
@@ -512,37 +512,37 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3627552</v>
+        <v>2833958</v>
       </c>
       <c r="D2" t="n">
-        <v>33.1</v>
+        <v>62.9</v>
       </c>
       <c r="E2" t="n">
-        <v>1200661</v>
+        <v>1783065</v>
       </c>
       <c r="F2" t="n">
-        <v>63.1</v>
+        <v>31.6</v>
       </c>
       <c r="G2" t="n">
-        <v>2287465</v>
+        <v>896590</v>
       </c>
       <c r="H2" t="n">
-        <v>3.1</v>
+        <v>4.6</v>
       </c>
       <c r="I2" t="n">
-        <v>113644</v>
+        <v>129949</v>
       </c>
       <c r="J2" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="K2" t="n">
-        <v>25783</v>
+        <v>24355</v>
       </c>
       <c r="L2" t="n">
-        <v>66.90000000000001</v>
+        <v>37.1</v>
       </c>
       <c r="M2" t="n">
-        <v>2426892</v>
+        <v>1050893</v>
       </c>
     </row>
     <row r="3">
@@ -557,37 +557,37 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3017073</v>
+        <v>2471589</v>
       </c>
       <c r="D3" t="n">
-        <v>32.1</v>
+        <v>66.5</v>
       </c>
       <c r="E3" t="n">
-        <v>969707</v>
+        <v>1644768</v>
       </c>
       <c r="F3" t="n">
-        <v>64.59999999999999</v>
+        <v>28.5</v>
       </c>
       <c r="G3" t="n">
-        <v>1948204</v>
+        <v>703296</v>
       </c>
       <c r="H3" t="n">
-        <v>2.5</v>
+        <v>4.3</v>
       </c>
       <c r="I3" t="n">
-        <v>75104</v>
+        <v>107447</v>
       </c>
       <c r="J3" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="K3" t="n">
-        <v>24058</v>
+        <v>16079</v>
       </c>
       <c r="L3" t="n">
-        <v>67.90000000000001</v>
+        <v>33.5</v>
       </c>
       <c r="M3" t="n">
-        <v>2047366</v>
+        <v>826821</v>
       </c>
     </row>
     <row r="4">
@@ -602,37 +602,37 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>298263</v>
+        <v>226810</v>
       </c>
       <c r="D4" t="n">
-        <v>40.5</v>
+        <v>36.8</v>
       </c>
       <c r="E4" t="n">
-        <v>120695</v>
+        <v>83383</v>
       </c>
       <c r="F4" t="n">
-        <v>51.9</v>
+        <v>54.8</v>
       </c>
       <c r="G4" t="n">
-        <v>154753</v>
+        <v>124350</v>
       </c>
       <c r="H4" t="n">
-        <v>7.4</v>
+        <v>5.4</v>
       </c>
       <c r="I4" t="n">
-        <v>21993</v>
+        <v>12235</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
-        <v>821</v>
+        <v>6842</v>
       </c>
       <c r="L4" t="n">
-        <v>59.5</v>
+        <v>63.2</v>
       </c>
       <c r="M4" t="n">
-        <v>177568</v>
+        <v>143427</v>
       </c>
     </row>
     <row r="5">
@@ -647,37 +647,37 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>175077</v>
+        <v>113405</v>
       </c>
       <c r="D5" t="n">
-        <v>34.3</v>
+        <v>42.2</v>
       </c>
       <c r="E5" t="n">
-        <v>60053</v>
+        <v>47820</v>
       </c>
       <c r="F5" t="n">
-        <v>62.6</v>
+        <v>48.9</v>
       </c>
       <c r="G5" t="n">
-        <v>109653</v>
+        <v>55452</v>
       </c>
       <c r="H5" t="n">
-        <v>2.6</v>
+        <v>7.7</v>
       </c>
       <c r="I5" t="n">
-        <v>4467</v>
+        <v>8760</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="K5" t="n">
-        <v>904</v>
+        <v>1373</v>
       </c>
       <c r="L5" t="n">
-        <v>65.7</v>
+        <v>57.8</v>
       </c>
       <c r="M5" t="n">
-        <v>115024</v>
+        <v>65585</v>
       </c>
     </row>
     <row r="6">
@@ -692,37 +692,37 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>137139</v>
+        <v>22154</v>
       </c>
       <c r="D6" t="n">
-        <v>36.6</v>
+        <v>32</v>
       </c>
       <c r="E6" t="n">
-        <v>50206</v>
+        <v>7094</v>
       </c>
       <c r="F6" t="n">
-        <v>54.6</v>
+        <v>60.9</v>
       </c>
       <c r="G6" t="n">
-        <v>74854</v>
+        <v>13492</v>
       </c>
       <c r="H6" t="n">
-        <v>8.800000000000001</v>
+        <v>6.8</v>
       </c>
       <c r="I6" t="n">
-        <v>12079</v>
+        <v>1507</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="L6" t="n">
-        <v>63.4</v>
+        <v>68</v>
       </c>
       <c r="M6" t="n">
-        <v>86934</v>
+        <v>15060</v>
       </c>
     </row>
   </sheetData>

--- a/output_validation/05_pin_overview.xlsx
+++ b/output_validation/05_pin_overview.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,217 +512,127 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2833958</v>
+        <v>68663199</v>
       </c>
       <c r="D2" t="n">
-        <v>62.9</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>1783065</v>
+        <v>45060900</v>
       </c>
       <c r="F2" t="n">
-        <v>31.6</v>
+        <v>33.4</v>
       </c>
       <c r="G2" t="n">
-        <v>896590</v>
+        <v>22928793</v>
       </c>
       <c r="H2" t="n">
-        <v>4.6</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>129949</v>
+        <v>665846</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24355</v>
+        <v>7661</v>
       </c>
       <c r="L2" t="n">
-        <v>37.1</v>
+        <v>34.4</v>
       </c>
       <c r="M2" t="n">
-        <v>1050893</v>
+        <v>23602299</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ocap (5-17 y.o.)</t>
+          <t>non_pdi (5-17 y.o.)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ocap</t>
+          <t>non_pdi</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2471589</v>
+        <v>48523504</v>
       </c>
       <c r="D3" t="n">
-        <v>66.5</v>
+        <v>74.2</v>
       </c>
       <c r="E3" t="n">
-        <v>1644768</v>
+        <v>35998252</v>
       </c>
       <c r="F3" t="n">
-        <v>28.5</v>
+        <v>24.8</v>
       </c>
       <c r="G3" t="n">
-        <v>703296</v>
+        <v>12049923</v>
       </c>
       <c r="H3" t="n">
-        <v>4.3</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>107447</v>
+        <v>468923</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>16079</v>
+        <v>6406</v>
       </c>
       <c r="L3" t="n">
-        <v>33.5</v>
+        <v>25.8</v>
       </c>
       <c r="M3" t="n">
-        <v>826821</v>
+        <v>12525253</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>idp (5-17 y.o.)</t>
+          <t>pdi (5-17 y.o.)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>idp</t>
+          <t>pdi</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>226810</v>
+        <v>20139695</v>
       </c>
       <c r="D4" t="n">
-        <v>36.8</v>
+        <v>45</v>
       </c>
       <c r="E4" t="n">
-        <v>83383</v>
+        <v>9062649</v>
       </c>
       <c r="F4" t="n">
-        <v>54.8</v>
+        <v>54</v>
       </c>
       <c r="G4" t="n">
-        <v>124350</v>
+        <v>10878870</v>
       </c>
       <c r="H4" t="n">
-        <v>5.4</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>12235</v>
+        <v>196922</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>6842</v>
+        <v>1254</v>
       </c>
       <c r="L4" t="n">
-        <v>63.2</v>
+        <v>55</v>
       </c>
       <c r="M4" t="n">
-        <v>143427</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>ret (5-17 y.o.)</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>ret</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>113405</v>
-      </c>
-      <c r="D5" t="n">
-        <v>42.2</v>
-      </c>
-      <c r="E5" t="n">
-        <v>47820</v>
-      </c>
-      <c r="F5" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="G5" t="n">
-        <v>55452</v>
-      </c>
-      <c r="H5" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="I5" t="n">
-        <v>8760</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1373</v>
-      </c>
-      <c r="L5" t="n">
-        <v>57.8</v>
-      </c>
-      <c r="M5" t="n">
-        <v>65585</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>ndsp (5-17 y.o.)</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>ndsp</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>22154</v>
-      </c>
-      <c r="D6" t="n">
-        <v>32</v>
-      </c>
-      <c r="E6" t="n">
-        <v>7094</v>
-      </c>
-      <c r="F6" t="n">
-        <v>60.9</v>
-      </c>
-      <c r="G6" t="n">
-        <v>13492</v>
-      </c>
-      <c r="H6" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1507</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="K6" t="n">
-        <v>62</v>
-      </c>
-      <c r="L6" t="n">
-        <v>68</v>
-      </c>
-      <c r="M6" t="n">
-        <v>15060</v>
+        <v>11077047</v>
       </c>
     </row>
   </sheetData>

--- a/output_validation/05_pin_overview.xlsx
+++ b/output_validation/05_pin_overview.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Population group</t>
+          <t>Groupe de population</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -451,64 +451,64 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>% severity levels 1-2</t>
+          <t>% niveaux de sévérité 1-2</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t># severity levels 1-2</t>
+          <t># niveaux de sévérité 1-2</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>% severity level 3</t>
+          <t>% niveau de sévérité 3</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t># severity level 3</t>
+          <t># niveau de sévérité 3</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>% severity level 4</t>
+          <t>% niveau de sévérité 4</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t># severity level 4</t>
+          <t># niveau de sévérité 4</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>% severity level 5</t>
+          <t>% niveau de sévérité 5</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t># severity level 5</t>
+          <t># niveau de sévérité 5</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>% Tot PiN (severity levels 3-5)</t>
+          <t>% Tot PiN (niveaux de sévérité 3-5)</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t># Tot PiN (severity levels 3-5)</t>
+          <t># Tot PiN (niveaux de sévérité 3-5)</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>TOTAL (5-17 y.o.)</t>
+          <t>TOTAL (5-17 ans)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>All population groups</t>
+          <t>Tous les groupes de population</t>
         </is>
       </c>
       <c r="C2" t="n">

--- a/output_validation/05_pin_overview.xlsx
+++ b/output_validation/05_pin_overview.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>TotN</t>
+          <t>Population totale</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">

--- a/output_validation/05_pin_overview.xlsx
+++ b/output_validation/05_pin_overview.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,127 +512,217 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>68663199</v>
+        <v>2307204</v>
       </c>
       <c r="D2" t="n">
-        <v>65.59999999999999</v>
+        <v>47.5</v>
       </c>
       <c r="E2" t="n">
-        <v>45060900</v>
+        <v>1094955</v>
       </c>
       <c r="F2" t="n">
-        <v>33.4</v>
+        <v>47.4</v>
       </c>
       <c r="G2" t="n">
-        <v>22928793</v>
+        <v>1094654</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>4.2</v>
       </c>
       <c r="I2" t="n">
-        <v>665846</v>
+        <v>97326</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="K2" t="n">
-        <v>7661</v>
+        <v>20270</v>
       </c>
       <c r="L2" t="n">
-        <v>34.4</v>
+        <v>52.5</v>
       </c>
       <c r="M2" t="n">
-        <v>23602299</v>
+        <v>1212250</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>non_pdi (5-17 y.o.)</t>
+          <t>hote (5-17 y.o.)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>non_pdi</t>
+          <t>hote</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>48523504</v>
+        <v>2077436</v>
       </c>
       <c r="D3" t="n">
-        <v>74.2</v>
+        <v>48.1</v>
       </c>
       <c r="E3" t="n">
-        <v>35998252</v>
+        <v>998326</v>
       </c>
       <c r="F3" t="n">
-        <v>24.8</v>
+        <v>46.9</v>
       </c>
       <c r="G3" t="n">
-        <v>12049923</v>
+        <v>975307</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>4.2</v>
       </c>
       <c r="I3" t="n">
-        <v>468923</v>
+        <v>87856</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="K3" t="n">
-        <v>6406</v>
+        <v>15946</v>
       </c>
       <c r="L3" t="n">
-        <v>25.8</v>
+        <v>51.9</v>
       </c>
       <c r="M3" t="n">
-        <v>12525253</v>
+        <v>1079110</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>pdi (5-17 y.o.)</t>
+          <t>idp_host (5-17 y.o.)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pdi</t>
+          <t>idp_host</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>20139695</v>
+        <v>125059</v>
       </c>
       <c r="D4" t="n">
-        <v>45</v>
+        <v>46.6</v>
       </c>
       <c r="E4" t="n">
-        <v>9062649</v>
+        <v>58310</v>
       </c>
       <c r="F4" t="n">
-        <v>54</v>
+        <v>48.5</v>
       </c>
       <c r="G4" t="n">
-        <v>10878870</v>
+        <v>60712</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>196922</v>
+        <v>3871</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="K4" t="n">
-        <v>1254</v>
+        <v>2166</v>
       </c>
       <c r="L4" t="n">
-        <v>55</v>
+        <v>53.4</v>
       </c>
       <c r="M4" t="n">
-        <v>11077047</v>
+        <v>66749</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>retourne (5-17 y.o.)</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>retourne</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>77546</v>
+      </c>
+      <c r="D5" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="E5" t="n">
+        <v>28124</v>
+      </c>
+      <c r="F5" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="G5" t="n">
+        <v>43254</v>
+      </c>
+      <c r="H5" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4200</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1967</v>
+      </c>
+      <c r="L5" t="n">
+        <v>63.7</v>
+      </c>
+      <c r="M5" t="n">
+        <v>49422</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>idp_site (5-17 y.o.)</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>idp_site</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>27164</v>
+      </c>
+      <c r="D6" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>10195</v>
+      </c>
+      <c r="F6" t="n">
+        <v>56.6</v>
+      </c>
+      <c r="G6" t="n">
+        <v>15381</v>
+      </c>
+      <c r="H6" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1399</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="K6" t="n">
+        <v>190</v>
+      </c>
+      <c r="L6" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="M6" t="n">
+        <v>16970</v>
       </c>
     </row>
   </sheetData>
